--- a/CREATE TEMPLATE/Templates.xlsx
+++ b/CREATE TEMPLATE/Templates.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\CSE\Python\Invoice image processing\2.0\CREATE TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66A563C-EB33-406C-85D2-3B1B72866CFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D4BE0B-581D-4189-B66B-5B449B312DCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>CODE</t>
   </si>
@@ -48,18 +47,6 @@
     <t>ENERGY SHIPPING</t>
   </si>
   <si>
-    <t>5,3</t>
-  </si>
-  <si>
-    <t>6,2</t>
-  </si>
-  <si>
-    <t>8,2</t>
-  </si>
-  <si>
-    <t>8,1</t>
-  </si>
-  <si>
     <t>INVOICE NUMBER</t>
   </si>
   <si>
@@ -75,73 +62,88 @@
     <t>ADANI GLOBAL</t>
   </si>
   <si>
-    <t>1,-3</t>
-  </si>
-  <si>
     <t>IS THERE SPACE BETWEEN CURRENCY AND AMOUNT?</t>
   </si>
   <si>
     <t>ARITRA SAMANTA</t>
   </si>
   <si>
+    <t>RS DATE</t>
+  </si>
+  <si>
+    <t>IF AMOUNT IS IN WORDS USE POSITIVE NUMBERS ONLY</t>
+  </si>
+  <si>
+    <t>IF IN WORDS GIVE THE POSITION OF FIRST NUMBER ONLY</t>
+  </si>
+  <si>
+    <t>INMARSAT</t>
+  </si>
+  <si>
+    <t>5,-1</t>
+  </si>
+  <si>
+    <t>3,-1</t>
+  </si>
+  <si>
+    <t>IF THERE IS A CHARACTER BETWEEN CUR AND AMOUNT, ENTER IT</t>
+  </si>
+  <si>
+    <t>ISS MACHINERY</t>
+  </si>
+  <si>
+    <t>IS THERE SPACE BETWEEN RS NUMBER AND RS DATE?</t>
+  </si>
+  <si>
+    <t>IS THERE A SPACE BETWEEN INVOICE NO. AND DATE?</t>
+  </si>
+  <si>
+    <t>IF THERE IS A SPACE, ENTER '1'</t>
+  </si>
+  <si>
+    <t>IF THERE IS A CHARACTER B/W NO. AND DATE ENTER IT</t>
+  </si>
+  <si>
+    <t>DOES THE AMOUNT HAVE SPACES WITHIN?</t>
+  </si>
+  <si>
+    <t>7,-1</t>
+  </si>
+  <si>
+    <t>2,-3</t>
+  </si>
+  <si>
+    <t>2,-1</t>
+  </si>
+  <si>
+    <t>9,7</t>
+  </si>
+  <si>
+    <t>9,6</t>
+  </si>
+  <si>
+    <t>15,-3:15,-1</t>
+  </si>
+  <si>
+    <t>3,-3:3,-1</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>2,-2</t>
+  </si>
+  <si>
+    <t>WERE UNDERLINES REMOVED?</t>
+  </si>
+  <si>
+    <t>REMEMBER TO FILL COLUMN 'O' (15)</t>
+  </si>
+  <si>
     <t>1,-1</t>
   </si>
   <si>
-    <t>RS DATE</t>
-  </si>
-  <si>
-    <t>IF AMOUNT IS IN WORDS USE POSITIVE NUMBERS ONLY</t>
-  </si>
-  <si>
-    <t>IF IN WORDS GIVE THE POSITION OF FIRST NUMBER ONLY</t>
-  </si>
-  <si>
-    <t>15,6</t>
-  </si>
-  <si>
-    <t>INMARSAT</t>
-  </si>
-  <si>
-    <t>5,-1</t>
-  </si>
-  <si>
-    <t>9,-3:9,-1</t>
-  </si>
-  <si>
     <t>3,-2</t>
-  </si>
-  <si>
-    <t>3,-1</t>
-  </si>
-  <si>
-    <t>IF THERE IS A CHARACTER BETWEEN CUR AND AMOUNT, ENTER IT</t>
-  </si>
-  <si>
-    <t>ISS MACHINERY</t>
-  </si>
-  <si>
-    <t>6,-1</t>
-  </si>
-  <si>
-    <t>4,-3:4,-1</t>
-  </si>
-  <si>
-    <t>IS THERE SPACE BETWEEN RS NUMBER AND RS DATE?</t>
-  </si>
-  <si>
-    <t>IS THERE A SPACE BETWEEN INVOICE NO. AND DATE?</t>
-  </si>
-  <si>
-    <t>IF THERE IS A SPACE, ENTER '1'</t>
-  </si>
-  <si>
-    <t>IF THERE IS A CHARACTER B/W NO. AND DATE ENTER IT</t>
-  </si>
-  <si>
-    <t>DOES THE AMOUNT HAVE SPACES WITHIN?</t>
-  </si>
-  <si>
-    <t>9,4</t>
   </si>
 </sst>
 </file>
@@ -193,7 +195,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +206,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,9 +527,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,20 +547,23 @@
     <col min="11" max="11" width="25" customWidth="1"/>
     <col min="12" max="12" width="45.44140625" customWidth="1"/>
     <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="15" max="15" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -564,17 +573,17 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -584,19 +593,19 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -604,7 +613,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -612,43 +621,46 @@
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0</v>
       </c>
@@ -656,10 +668,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -668,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -677,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
@@ -685,19 +697,22 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -706,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3">
         <v>0</v>
@@ -715,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
@@ -723,19 +738,22 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -744,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -753,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -761,19 +779,22 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3">
         <v>1</v>
@@ -782,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -797,10 +818,13 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="1048575" spans="46:46" x14ac:dyDescent="0.3">
       <c r="AT1048575" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
